--- a/testdata/robotmanage/robot_manage.xlsx
+++ b/testdata/robotmanage/robot_manage.xlsx
@@ -3,18 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query_data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="edit_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detail_data" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_data" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="set_status_data" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_data" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="head_portrait" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query_data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="edit_data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detail_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="set_status_data" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="head_portrait" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -361,7 +360,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -458,7 +457,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>code-8</t>
+          <t>code-1213</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -617,24 +616,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -778,7 +759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,7 +768,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -844,7 +825,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>code-8</t>
+          <t>code-1213</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -884,7 +865,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>code-8</t>
+          <t>code-1213</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -987,7 +968,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>{"robotId":"460","robotName":"zltestrobot1","nickNameInsite":"zltestrobot1","nickNameOutsite":"zltestrobot1","signature":"周璐测试机器人1","robotPackage":1,"robotTemplate":3,"robotStatus":1,"addTime":"2020-09-07 20:32:13","userId":"11"}</t>
+          <t>{"robotId":"358","robotName":"zltestrobot1","nickNameInsite":"zltestrobot1","nickNameOutsite":"zltestrobot1","signature":"周璐测试机器人1","robotPackage":1,"robotTemplate":3,"robotStatus":1,"addTime":"2020-09-07 20:32:13","userId":"11"}</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -1001,7 +982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,7 +1125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1152,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" activeCellId="1" sqref="B7 B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1248,7 +1229,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>缺参-robotId缺失</t>
@@ -1273,7 +1254,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>{ "userId": 11,"robotId":736}</t>
+          <t>{ "userId": 11,"robotId":1180}</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1288,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1589,7 +1570,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>登陆错误-用户名错误</t>
@@ -1629,7 +1610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1637,8 +1618,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>

--- a/testdata/robotmanage/robot_manage.xlsx
+++ b/testdata/robotmanage/robot_manage.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>sql-select robotId,robotName,nickNameInsite,robotType,robotPackage,robotTemplate,robotStatus,addTime,userId from robot_basic_info where userId=11 and robotId=358</t>
+          <t>sql-select robotId,robotName from robot_basic_info where userId=11 and robotId=358</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>sql-select robotId,robotName,nickNameInsite,robotType,robotPackage,robotTemplate,robotStatus,addTime,userId from robot_basic_info where userId=11 and robotId=358</t>
+          <t>sql-select robotId,robotName from robot_basic_info where userId=11 and robotId=358</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>{ "userId": 11,"robotId":1180}</t>
+          <t>{ "userId": 11,"robotId":1558}</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1496,9 +1496,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>sql-select DISTINCT rb.userId,rb.userName,rb.addTime,rb.modifyTime,rb.dataStatus,ra.robotType,ry.typeName,ry.addTime,ry.modifyTime,ry.dataStatus
-from kicp_robot_config.robot_basic_info ra,kicp_user_manage.`user` rb,kicp_basic_data.robot_type ry
-where ra.userId=11 and ra.userId =rb.userId and ra.robotType=ry.typeId</t>
+          <t>sql-select DISTINCT userId,userName from kicp_user_manage.`user` where userId=11</t>
         </is>
       </c>
     </row>
